--- a/parameters/struct_1front_0back_air_air.xlsx
+++ b/parameters/struct_1front_0back_air_air.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="materials" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="materials" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="front_layers" vbProcedure="false">materials!$A$4:$H$4</definedName>
@@ -254,87 +254,87 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -419,6 +419,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -427,1209 +533,1209 @@
   <dimension ref="A1:AA979"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="20.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="20.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="11" t="n">
+      <c r="C3" s="12" t="n">
         <v>343</v>
       </c>
-      <c r="D3" s="11" t="n">
+      <c r="D3" s="12" t="n">
         <v>0.0004</v>
       </c>
-      <c r="E3" s="11" t="n">
+      <c r="E3" s="12" t="n">
         <v>150</v>
       </c>
-      <c r="F3" s="11" t="n">
+      <c r="F3" s="12" t="n">
         <v>30</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="17" t="n">
+      <c r="C6" s="18" t="n">
         <v>4500</v>
       </c>
-      <c r="D6" s="17" t="n">
+      <c r="D6" s="18" t="n">
         <v>34</v>
       </c>
-      <c r="E6" s="17" t="n">
+      <c r="E6" s="18" t="n">
         <v>0.347</v>
       </c>
-      <c r="F6" s="17" t="n">
+      <c r="F6" s="18" t="n">
         <v>30</v>
       </c>
-      <c r="G6" s="17" t="n">
+      <c r="G6" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="18" t="n">
+      <c r="H6" s="19" t="n">
         <v>750</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17" t="n">
+      <c r="C8" s="18" t="n">
         <v>3000</v>
       </c>
-      <c r="D8" s="17" t="n">
+      <c r="D8" s="18" t="n">
         <v>0.018</v>
       </c>
-      <c r="E8" s="17" t="n">
+      <c r="E8" s="18" t="n">
         <v>0.25</v>
       </c>
-      <c r="F8" s="17" t="n">
-        <v>75</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
+      <c r="F8" s="18" t="n">
+        <v>30</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="21"/>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C10" s="12" t="n">
         <v>343</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="12" t="n">
         <v>0.0004</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E10" s="12" t="n">
         <v>150</v>
       </c>
-      <c r="F10" s="11" t="n">
+      <c r="F10" s="12" t="n">
         <v>30</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="6"/>
-      <c r="B107" s="6"/>
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="6"/>
-      <c r="B108" s="6"/>
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="6"/>
-      <c r="B111" s="6"/>
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="6"/>
-      <c r="B112" s="6"/>
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="6"/>
-      <c r="B113" s="6"/>
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="6"/>
-      <c r="B114" s="6"/>
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="6"/>
-      <c r="B115" s="6"/>
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="6"/>
-      <c r="B116" s="6"/>
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6"/>
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="6"/>
-      <c r="B118" s="6"/>
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6"/>
+      <c r="A119" s="7"/>
+      <c r="B119" s="7"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="6"/>
-      <c r="B120" s="6"/>
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="6"/>
-      <c r="B121" s="6"/>
+      <c r="A121" s="7"/>
+      <c r="B121" s="7"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="6"/>
-      <c r="B122" s="6"/>
+      <c r="A122" s="7"/>
+      <c r="B122" s="7"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="6"/>
-      <c r="B123" s="6"/>
+      <c r="A123" s="7"/>
+      <c r="B123" s="7"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="6"/>
-      <c r="B124" s="6"/>
+      <c r="A124" s="7"/>
+      <c r="B124" s="7"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="6"/>
-      <c r="B125" s="6"/>
+      <c r="A125" s="7"/>
+      <c r="B125" s="7"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="6"/>
-      <c r="B126" s="6"/>
+      <c r="A126" s="7"/>
+      <c r="B126" s="7"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="6"/>
-      <c r="B127" s="6"/>
+      <c r="A127" s="7"/>
+      <c r="B127" s="7"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="6"/>
-      <c r="B128" s="6"/>
+      <c r="A128" s="7"/>
+      <c r="B128" s="7"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="6"/>
-      <c r="B129" s="6"/>
+      <c r="A129" s="7"/>
+      <c r="B129" s="7"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="6"/>
-      <c r="B130" s="6"/>
+      <c r="A130" s="7"/>
+      <c r="B130" s="7"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="6"/>
-      <c r="B131" s="6"/>
+      <c r="A131" s="7"/>
+      <c r="B131" s="7"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="6"/>
-      <c r="B132" s="6"/>
+      <c r="A132" s="7"/>
+      <c r="B132" s="7"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="6"/>
-      <c r="B133" s="6"/>
+      <c r="A133" s="7"/>
+      <c r="B133" s="7"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="6"/>
-      <c r="B134" s="6"/>
+      <c r="A134" s="7"/>
+      <c r="B134" s="7"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="6"/>
-      <c r="B135" s="6"/>
+      <c r="A135" s="7"/>
+      <c r="B135" s="7"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="6"/>
-      <c r="B136" s="6"/>
+      <c r="A136" s="7"/>
+      <c r="B136" s="7"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="6"/>
-      <c r="B137" s="6"/>
+      <c r="A137" s="7"/>
+      <c r="B137" s="7"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="6"/>
-      <c r="B138" s="6"/>
+      <c r="A138" s="7"/>
+      <c r="B138" s="7"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="6"/>
-      <c r="B139" s="6"/>
+      <c r="A139" s="7"/>
+      <c r="B139" s="7"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="6"/>
-      <c r="B140" s="6"/>
+      <c r="A140" s="7"/>
+      <c r="B140" s="7"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="6"/>
-      <c r="B141" s="6"/>
+      <c r="A141" s="7"/>
+      <c r="B141" s="7"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="6"/>
-      <c r="B142" s="6"/>
+      <c r="A142" s="7"/>
+      <c r="B142" s="7"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="6"/>
-      <c r="B143" s="6"/>
+      <c r="A143" s="7"/>
+      <c r="B143" s="7"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="6"/>
-      <c r="B144" s="6"/>
+      <c r="A144" s="7"/>
+      <c r="B144" s="7"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="6"/>
-      <c r="B145" s="6"/>
+      <c r="A145" s="7"/>
+      <c r="B145" s="7"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="6"/>
-      <c r="B146" s="6"/>
+      <c r="A146" s="7"/>
+      <c r="B146" s="7"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="6"/>
-      <c r="B147" s="6"/>
+      <c r="A147" s="7"/>
+      <c r="B147" s="7"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="6"/>
-      <c r="B148" s="6"/>
+      <c r="A148" s="7"/>
+      <c r="B148" s="7"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="6"/>
-      <c r="B149" s="6"/>
+      <c r="A149" s="7"/>
+      <c r="B149" s="7"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="6"/>
-      <c r="B150" s="6"/>
+      <c r="A150" s="7"/>
+      <c r="B150" s="7"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="6"/>
-      <c r="B151" s="6"/>
+      <c r="A151" s="7"/>
+      <c r="B151" s="7"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="6"/>
-      <c r="B152" s="6"/>
+      <c r="A152" s="7"/>
+      <c r="B152" s="7"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="6"/>
-      <c r="B153" s="6"/>
+      <c r="A153" s="7"/>
+      <c r="B153" s="7"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="6"/>
-      <c r="B154" s="6"/>
+      <c r="A154" s="7"/>
+      <c r="B154" s="7"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="6"/>
-      <c r="B155" s="6"/>
+      <c r="A155" s="7"/>
+      <c r="B155" s="7"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="6"/>
-      <c r="B156" s="6"/>
+      <c r="A156" s="7"/>
+      <c r="B156" s="7"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="6"/>
-      <c r="B157" s="6"/>
+      <c r="A157" s="7"/>
+      <c r="B157" s="7"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="6"/>
-      <c r="B158" s="6"/>
+      <c r="A158" s="7"/>
+      <c r="B158" s="7"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="6"/>
-      <c r="B159" s="6"/>
+      <c r="A159" s="7"/>
+      <c r="B159" s="7"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="6"/>
-      <c r="B160" s="6"/>
+      <c r="A160" s="7"/>
+      <c r="B160" s="7"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="6"/>
-      <c r="B161" s="6"/>
+      <c r="A161" s="7"/>
+      <c r="B161" s="7"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="6"/>
-      <c r="B162" s="6"/>
+      <c r="A162" s="7"/>
+      <c r="B162" s="7"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="6"/>
-      <c r="B163" s="6"/>
+      <c r="A163" s="7"/>
+      <c r="B163" s="7"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="6"/>
-      <c r="B164" s="6"/>
+      <c r="A164" s="7"/>
+      <c r="B164" s="7"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="6"/>
-      <c r="B165" s="6"/>
+      <c r="A165" s="7"/>
+      <c r="B165" s="7"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="6"/>
-      <c r="B166" s="6"/>
+      <c r="A166" s="7"/>
+      <c r="B166" s="7"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="6"/>
-      <c r="B167" s="6"/>
+      <c r="A167" s="7"/>
+      <c r="B167" s="7"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="6"/>
-      <c r="B168" s="6"/>
+      <c r="A168" s="7"/>
+      <c r="B168" s="7"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="6"/>
-      <c r="B169" s="6"/>
+      <c r="A169" s="7"/>
+      <c r="B169" s="7"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="6"/>
-      <c r="B170" s="6"/>
+      <c r="A170" s="7"/>
+      <c r="B170" s="7"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="6"/>
-      <c r="B171" s="6"/>
+      <c r="A171" s="7"/>
+      <c r="B171" s="7"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="6"/>
-      <c r="B172" s="6"/>
+      <c r="A172" s="7"/>
+      <c r="B172" s="7"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="6"/>
-      <c r="B173" s="6"/>
+      <c r="A173" s="7"/>
+      <c r="B173" s="7"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="6"/>
-      <c r="B174" s="6"/>
+      <c r="A174" s="7"/>
+      <c r="B174" s="7"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="6"/>
-      <c r="B175" s="6"/>
+      <c r="A175" s="7"/>
+      <c r="B175" s="7"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="6"/>
-      <c r="B176" s="6"/>
+      <c r="A176" s="7"/>
+      <c r="B176" s="7"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="6"/>
-      <c r="B177" s="6"/>
+      <c r="A177" s="7"/>
+      <c r="B177" s="7"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="6"/>
-      <c r="B178" s="6"/>
+      <c r="A178" s="7"/>
+      <c r="B178" s="7"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="6"/>
-      <c r="B179" s="6"/>
+      <c r="A179" s="7"/>
+      <c r="B179" s="7"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="6"/>
-      <c r="B180" s="6"/>
+      <c r="A180" s="7"/>
+      <c r="B180" s="7"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="6"/>
-      <c r="B181" s="6"/>
+      <c r="A181" s="7"/>
+      <c r="B181" s="7"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="6"/>
-      <c r="B182" s="6"/>
+      <c r="A182" s="7"/>
+      <c r="B182" s="7"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="6"/>
-      <c r="B183" s="6"/>
+      <c r="A183" s="7"/>
+      <c r="B183" s="7"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="6"/>
-      <c r="B184" s="6"/>
+      <c r="A184" s="7"/>
+      <c r="B184" s="7"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="6"/>
-      <c r="B185" s="6"/>
+      <c r="A185" s="7"/>
+      <c r="B185" s="7"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="6"/>
-      <c r="B186" s="6"/>
+      <c r="A186" s="7"/>
+      <c r="B186" s="7"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="6"/>
-      <c r="B187" s="6"/>
+      <c r="A187" s="7"/>
+      <c r="B187" s="7"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="6"/>
-      <c r="B188" s="6"/>
+      <c r="A188" s="7"/>
+      <c r="B188" s="7"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="6"/>
-      <c r="B189" s="6"/>
+      <c r="A189" s="7"/>
+      <c r="B189" s="7"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="6"/>
-      <c r="B190" s="6"/>
+      <c r="A190" s="7"/>
+      <c r="B190" s="7"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="6"/>
-      <c r="B191" s="6"/>
+      <c r="A191" s="7"/>
+      <c r="B191" s="7"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="6"/>
-      <c r="B192" s="6"/>
+      <c r="A192" s="7"/>
+      <c r="B192" s="7"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="6"/>
-      <c r="B193" s="6"/>
+      <c r="A193" s="7"/>
+      <c r="B193" s="7"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="6"/>
-      <c r="B194" s="6"/>
+      <c r="A194" s="7"/>
+      <c r="B194" s="7"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="6"/>
-      <c r="B195" s="6"/>
+      <c r="A195" s="7"/>
+      <c r="B195" s="7"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="6"/>
-      <c r="B196" s="6"/>
+      <c r="A196" s="7"/>
+      <c r="B196" s="7"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="6"/>
-      <c r="B197" s="6"/>
+      <c r="A197" s="7"/>
+      <c r="B197" s="7"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="6"/>
-      <c r="B198" s="6"/>
+      <c r="A198" s="7"/>
+      <c r="B198" s="7"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="6"/>
-      <c r="B199" s="6"/>
+      <c r="A199" s="7"/>
+      <c r="B199" s="7"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
